--- a/Data/test B/special_news.xlsx
+++ b/Data/test B/special_news.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sandra/TODO/机票航班延误预测算法大赛/Data/test B/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -383,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>采集时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,7 +404,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特情</t>
+    <t>收集时间</t>
+    <rPh sb="0" eb="1">
+      <t>shou'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特情机场</t>
+    <rPh sb="2" eb="3">
+      <t>ji'chang</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,13 +426,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -507,12 +526,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -542,12 +561,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -754,33 +773,33 @@
   <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -797,7 +816,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -814,7 +833,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -831,7 +850,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -848,7 +867,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -865,7 +884,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -882,7 +901,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -899,7 +918,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -916,7 +935,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -933,7 +952,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -950,7 +969,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -967,7 +986,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -984,7 +1003,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +1020,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1037,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1054,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -1052,7 +1071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1069,7 +1088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>104</v>
       </c>
@@ -1086,7 +1105,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,7 +1156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1190,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1188,7 +1207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1224,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
@@ -1256,7 +1275,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -1273,7 +1292,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -1290,7 +1309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1307,7 +1326,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1324,7 +1343,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1377,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,7 +1411,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -1409,7 +1428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
@@ -1426,7 +1445,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -1443,7 +1462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1479,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1477,7 +1496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>17</v>
       </c>
@@ -1494,7 +1513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,7 +1530,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,7 +1547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
@@ -1545,7 +1564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>23</v>
       </c>
@@ -1562,7 +1581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
@@ -1579,7 +1598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>34</v>
       </c>
@@ -1596,7 +1615,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1613,7 +1632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -1647,7 +1666,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -1698,7 +1717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>37</v>
       </c>
@@ -1715,7 +1734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +1768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
@@ -1766,7 +1785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -1783,7 +1802,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>8</v>
       </c>
@@ -1817,7 +1836,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>17</v>
       </c>
@@ -1834,7 +1853,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
@@ -1868,7 +1887,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
@@ -1885,7 +1904,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>11</v>
       </c>
@@ -1902,7 +1921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>11</v>
       </c>
@@ -1919,7 +1938,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1953,7 +1972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,7 +1989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>34</v>
       </c>
@@ -1987,7 +2006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>34</v>
       </c>
@@ -2004,7 +2023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,7 +2040,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
@@ -2038,7 +2057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2074,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>25</v>
       </c>
@@ -2072,7 +2091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>28</v>
       </c>
@@ -2089,7 +2108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>17</v>
       </c>
@@ -2106,7 +2125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>44</v>
       </c>
@@ -2123,7 +2142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>3</v>
       </c>
@@ -2157,7 +2176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2191,7 +2210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>21</v>
       </c>
@@ -2208,7 +2227,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>37</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,7 +2261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>34</v>
       </c>
@@ -2259,7 +2278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>32</v>
       </c>
@@ -2276,7 +2295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -2293,7 +2312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,7 +2329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
@@ -2327,7 +2346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>23</v>
       </c>
@@ -2344,7 +2363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>25</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>23</v>
       </c>
@@ -2378,7 +2397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>21</v>
       </c>
@@ -2395,7 +2414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>17</v>
       </c>
@@ -2412,7 +2431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -2429,7 +2448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>17</v>
       </c>
@@ -2446,7 +2465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -2463,7 +2482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
@@ -2497,7 +2516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -2514,7 +2533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -2531,7 +2550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>8</v>
       </c>
@@ -2548,7 +2567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +2601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -2599,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
